--- a/public/hiring/FT-RH-04.xlsx
+++ b/public/hiring/FT-RH-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tics\Desktop\sicap\sicapsystem\public\hiring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB44B2-9591-491D-A253-F05191E9EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CF0D9-0DD0-441C-85FD-E844AF376C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="0" windowWidth="13950" windowHeight="16305" xr2:uid="{80D49D2A-8D89-4CA9-B922-F8A59A9140E3}"/>
+    <workbookView xWindow="1005" yWindow="1425" windowWidth="26475" windowHeight="10440" xr2:uid="{80D49D2A-8D89-4CA9-B922-F8A59A9140E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,76 +312,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,7 +400,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>155044</xdr:rowOff>
     </xdr:to>
@@ -805,7 +793,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
@@ -816,849 +804,832 @@
     <col min="9" max="9" width="4.85546875" style="2" customWidth="1"/>
     <col min="10" max="11" width="12.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="26" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13"/>
-      <c r="M4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="9"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="9"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="9"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="9"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="21" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="9"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="21" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="9"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="21" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="9"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="21" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="9"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="21" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="9"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="21" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="9"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="21" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="9"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="21" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="9"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="24" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="9"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="9"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="9"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="9"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="13"/>
-      <c r="M49" s="9"/>
+      <c r="A49" s="6"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="13"/>
-      <c r="M50" s="9"/>
+      <c r="A50" s="6"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="13"/>
-      <c r="M51" s="9"/>
+      <c r="A51" s="6"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="13"/>
-      <c r="M52" s="9"/>
+      <c r="A52" s="6"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="13"/>
-      <c r="M53" s="9"/>
+      <c r="A53" s="6"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="13"/>
-      <c r="K54" s="25" t="s">
+      <c r="A54" s="6"/>
+      <c r="K54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="25"/>
-      <c r="M54" s="9"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="12"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="B46:L48"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="F12:L12"/>
@@ -1675,15 +1646,24 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="B46:L48"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.70866141732283472" top="0.11811023622047245" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/hiring/FT-RH-04.xlsx
+++ b/public/hiring/FT-RH-04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tics\Desktop\sicap\sicapsystem\public\hiring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CF0D9-0DD0-441C-85FD-E844AF376C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B749F5-F7BB-4455-9CB4-1FF727A7D69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1425" windowWidth="26475" windowHeight="10440" xr2:uid="{80D49D2A-8D89-4CA9-B922-F8A59A9140E3}"/>
+    <workbookView xWindow="0" yWindow="1650" windowWidth="26475" windowHeight="10440" xr2:uid="{80D49D2A-8D89-4CA9-B922-F8A59A9140E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,8 +396,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>155044</xdr:rowOff>
     </xdr:to>
@@ -788,12 +785,12 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:K24"/>
+      <selection activeCell="F10" sqref="F10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2"/>
@@ -804,72 +801,72 @@
     <col min="9" max="9" width="4.85546875" style="2" customWidth="1"/>
     <col min="10" max="11" width="12.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="19" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -887,13 +884,13 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -904,13 +901,13 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -921,13 +918,13 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -938,13 +935,13 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -955,13 +952,13 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -972,13 +969,13 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -989,13 +986,13 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1665,7 +1662,7 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H25:K25"/>
   </mergeCells>
-  <pageMargins left="0.11811023622047245" right="0.70866141732283472" top="0.11811023622047245" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
